--- a/DOM_Banner/output/dept_banner/Esteban Symonds_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Esteban Symonds_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Southwest Thames Regional Genetics Service, St George’s University Hospitals NHS Foundation Trust, London, United Kingdom; Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, Rockville, MD; Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson, AZ; Medical Genomics Research, Illumina, Inc., San Diego, CA; Hereditary Cancer Genetics Group, Vall d’Hebron Institute of Oncology (VHIO), Barcelona, Spain; Medical Oncology Department, Hospital Universitari Vall d’Hebron, Vall d’Hebron Hospital Campus, Barcelona, Spain; Departments of Human Genetics, Oncology and Medicine, McGill University, Montréal, QC, Canada; Parkville Familial Cancer Centre, Peter MacCallum Cancer Centre, Melbourne, VIC, Australia; Sir Peter MacCallum Department of Oncology, The University of Melbourne, Melbourne, VIC, Australia; Division of Reproductive &amp; Medical Genetics, Department of Obstetrics &amp; Gynecology and Women's Health, Montefiore Medical Center/Albert Einstein College of Medicine, Bronx, NY; Cancer Genetics Service, Division of Medical Oncology, National Cancer Centre Singapore, Singapore; Genomic Medicine, Lee Kong Chian School of Medicine, Nanyang Technological University, Singapore; Center for Hereditary Breast and Ovarian Cancer, University Hospital of Cologne, Cologne, Germany; Center of Integrated Oncology (CIO), University of Cologne, Cologne, Germany; Providence Genetic Risk Clinic, Providence Cancer Institute, Portland, OR; Departments of Obstetrics and Gynecology and Clinical Genomics, Mayo Clinic, Rochester, MN; Department of Medicine, Vanderbilt University Medical Center/Vanderbilt-Ingram Cancer Center, Nashville, TN; Department of Medical Genetics, National Institute for Health Research Cambridge Biomedical Research Centre, University of Cambridge, Cambridge, United Kingdom; Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, Rockville, MD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385230500</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Management of individuals with germline pathogenic/likely pathogenic variants in CHEK2: A clinical practice resource of the American College of Medical Genetics and Genomics (ACMG)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Genetics in Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gim.2023.100870</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37490054</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.gim.2023.100870</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -524,80 +534,85 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Michael R. Sargen, Jung Kim, Thomas P. Potjer, Mary E Velthuizen, Arelis Martir-Negron, Yazmín Odia, Hildur Helgadóttir, Jessica N Hatton, Jeremy S. Haley, Gretchen Thone, Brigitte C. Widemann, Andrea M. Gross, Marielle E. Yohe, Rosandra N. Kaplan, Jack F. Shern, Taylor Sundby, Esteban Astiazaran-Symonds, Xiaohong R. Yang, David J. Carey, Margaret A. Tucker, Douglas R. Stewart, Alisa M. Goldstein</t>
+          <t>Alisa M. Goldstein, Richard Qin, Emily Y. Chu, David E. Elder, Daniela Massi, David J. Adams, Paul W. Harms, Carla Daniela Robles‐Espinoza, Julia Newton‐Bishop, D. Timothy Bishop, Mark Harland, Elizabeth A. Holland, Anne E. Cust, Helen Schmid, Graham J. Mann, Susana Puig, Míriam Potrony, Llúcia Alós, Eduardo Nagore, David Millán-Esteban, Nicholas K. Hayward, Natasa Broit, Jane M. Palmer, Vaishnavi Nathan, Elizabeth Berry, Esteban Astiazaran-Symonds, Xiaohong R. Yang, Margaret A. Tucker, Maria Teresa Landi, Ruth M. Pfeiffer, Michael R. Sargen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385850484</t>
+          <t>Division of Cancer Epidemiology and Genetics, National Cancer Institute, Rockville, Maryland; Division of Cancer Epidemiology and Genetics, National Cancer Institute, Rockville, Maryland; Department of Dermatology, Hospital of the University of Pennsylvania, Philadelphia, Pennsylvania; Department of Pathology and Laboratory Medicine, Hospital of the University of Pennsylvania, Philadelphia, Pennsylvania; Section of Pathological Anatomy, Department of Health Sciences, University of Florence, Florence, Italy; Experimental Cancer Genetics, The Wellcome Trust Sanger Institute, Hinxton, England; Department of Pathology, University of Michigan, Ann Arbor, Michigan; Experimental Cancer Genetics, The Wellcome Trust Sanger Institute, Hinxton, England; Laboratorio Internacional de Investigación sobre el Genoma Humano, Universidad Nacional Autónoma de México, Campus Juriquilla, Santiago de Querétaro, Qro, Mexico; Division of Haematology and Immunology, Institute of Medical Research at St James’s, University of Leeds, Leeds, England; Division of Haematology and Immunology, Institute of Medical Research at St James’s, University of Leeds, Leeds, England; Division of Haematology and Immunology, Institute of Medical Research at St James’s, University of Leeds, Leeds, England; Centre for Cancer Research, Westmead Institute for Medical Research, The University of Sydney, Sydney, Australia; The Daffodil Centre, The University of Sydney, a joint venture with Cancer Council, NSW, Sydney, Australia; Melanoma Institute Australia, The University of Sydney, Sydney, NSW, Australia; The Daffodil Centre, The University of Sydney, a joint venture with Cancer Council, NSW, Sydney, Australia; Centre for Cancer Research, Westmead Institute for Medical Research, The University of Sydney, Sydney, Australia; Melanoma Institute Australia, The University of Sydney, Sydney, NSW, Australia; The Daffodil Centre, The University of Sydney, a joint venture with Cancer Council, NSW, Sydney, Australia; Centre for Cancer Research, Westmead Institute for Medical Research, The University of Sydney, Sydney, Australia; John Curtin School of Medical Research, Australian National University, Canberra, ACT, Australia; Melanoma Institute Australia, The University of Sydney, Sydney, NSW, Australia; Centre of Biomedical Research on Rare Diseases (CIBERER), ISCIII, Barcelona, Spain; Melanoma Unit, Department of Dermatology, Hospital Clínic de Barcelona, IDIBAPS, Barcelona University, Barcelona, Spain; Centre of Biomedical Research on Rare Diseases (CIBERER), ISCIII, Barcelona, Spain; Melanoma Unit, Biochemistry and Molecular Genetics Department, Hospital Clínic de Barcelona, IDIBAPS, Barcelona University, Barcelona, Spain; Pathology Department, Hospital Clínic de Barcelona, Universitat de Barcelona, Barcelona, Spain; Department of Dermatology, Fundación Instituto Valenciano de Oncología, València, Spain; School of Medicine, Universidad Católica de València San Vicente Mártir, València, Spain; Department of Dermatology, Fundación Instituto Valenciano de Oncología, València, Spain; School of Medicine, Universidad Católica de València San Vicente Mártir, València, Spain; QIMR Berghofer Medical Research Institute, Herston, QLD, Australia; QIMR Berghofer Medical Research Institute, Herston, QLD, Australia; QIMR Berghofer Medical Research Institute, Herston, QLD, Australia; QIMR Berghofer Medical Research Institute, Herston, QLD, Australia; Department of Dermatology, Oregon Health and Science University, Portland, Oregon; Division of Cancer Epidemiology and Genetics, National Cancer Institute, Rockville, Maryland; Division of Cancer Epidemiology and Genetics, National Cancer Institute, Rockville, Maryland; Division of Cancer Epidemiology and Genetics, National Cancer Institute, Rockville, Maryland; Division of Cancer Epidemiology and Genetics, National Cancer Institute, Rockville, Maryland; Division of Cancer Epidemiology and Genetics, National Cancer Institute, Rockville, Maryland; Division of Cancer Epidemiology and Genetics, National Cancer Institute, Rockville, Maryland; Laboratory of Pathology, Center for Cancer Research, National Cancer Institute, Bethesda, Maryland</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Estimated Prevalence, Tumor Spectrum, and Neurofibromatosis Type 1–Like Phenotype of &lt;i&gt;CDKN2A&lt;/i&gt;-Related Melanoma-Astrocytoma Syndrome</t>
+          <t>https://openalex.org/W4320012061</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Association of germline variants in telomere maintenance genes (POT1, TERF2IP, ACD, and TERT) with spitzoid morphology in familial melanoma: A multi-center case series</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>JAMA Dermatology</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>American Medical Association</t>
+          <t>JAAD International</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1001/jamadermatol.2023.2621</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.jdin.2023.01.013</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37585199</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1001/jamadermatol.2023.2621</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36876055</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jdin.2023.01.013</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jianglin Feng, Esteban Astiazaran Symonds, Jason H. Karnes</t>
+          <t>Michael R. Sargen, Jung Kim, Thomas P. Potjer, Mary E Velthuizen, Arelis Martir-Negron, Yazmín Odia, Hildur Helgadóttir, Jessica N Hatton, Jeremy S. Haley, Gretchen Thone, Brigitte C. Widemann, Andrea M. Gross, Marielle E. Yohe, Rosandra N. Kaplan, Jack F. Shern, Taylor Sundby, Esteban Astiazaran-Symonds, Xiaohong R. Yang, David J. Carey, Margaret A. Tucker, Douglas R. Stewart, Alisa M. Goldstein</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317480008</t>
+          <t>Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, Maryland.; Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, Maryland.; Department of Clinical Genetics, Leiden University Medical Center, Leiden, the Netherlands.; Division Laboratories, Pharmacy and Biomedical Genetics, Department of Genetics, University Medical Center Utrecht, Utrecht, the Netherlands.; Miami Cancer Institute, Baptist Health South Florida, Miami.; Miami Cancer Institute, Baptist Health South Florida, Miami.; Department of Oncology and Pathology, Karolinska Institutet and Karolinska University Hospital, Stockholm, Sweden.; Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, Maryland.; Department of Genomic Health, Geisinger Clinic, Geisinger Health System, Danville, Pennsylvania.; Department of Genomic Health, Geisinger Clinic, Geisinger Health System, Danville, Pennsylvania.; Pediatric Oncology Branch, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, Maryland.; Pediatric Oncology Branch, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, Maryland.; Laboratory of Cell and Developmental Signaling, Center for Cancer Research, Frederick, Maryland.; Pediatric Oncology Branch, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, Maryland.; Pediatric Oncology Branch, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, Maryland.; Pediatric Oncology Branch, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, Maryland.; Pediatric Oncology Branch, Center for Cancer Research, National Cancer Institute, National Institutes of Health, Bethesda, Maryland.; Department of Medicine, University of Arizona College of Medicine, Tucson.; Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, Maryland.; Department of Genomic Health, Geisinger Clinic, Geisinger Health System, Danville, Pennsylvania.; Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, Maryland.; Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, Maryland.; Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, Maryland.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Visualization and Quantification of the Association Between Breast Cancer and Cholesterol in the All of Us Research Program</t>
+          <t>https://openalex.org/W4385850484</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Estimated Prevalence, Tumor Spectrum, and Neurofibromatosis Type 1–Like Phenotype of &lt;i&gt;CDKN2A&lt;/i&gt;-Related Melanoma-Astrocytoma Syndrome</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cancer Informatics</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>JAMA Dermatology</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/11769351221144132</t>
+          <t>American Medical Association</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>https://doi.org/10.1001/jamadermatol.2023.2621</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36654923</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/11769351221144132</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37585199</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1001/jamadermatol.2023.2621</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alisa M. Goldstein, Richard Qin, Emily Y. Chu, David E. Elder, Daniela Massi, David J. Adams, Paul W. Harms, Carla Daniela Robles‐Espinoza, Julia Newton‐Bishop, D. Timothy Bishop, Mark Harland, Elizabeth A. Holland, Anne E. Cust, Helen Schmid, Graham J. Mann, Susana Puig, Míriam Potrony, Llúcia Alós, Eduardo Nagore, David Millán-Esteban, Nicholas K. Hayward, Natasa Broit, Jane M. Palmer, Vaishnavi Nathan, Elizabeth Berry, Esteban Astiazaran-Symonds, Xiaohong R. Yang, Margaret A. Tucker, Maria Teresa Landi, Ruth M. Pfeiffer, Michael R. Sargen</t>
+          <t>Esteban Astiazaran-Symonds, Gina M. Ney, Cecilia Higgs, Leatrisse Oba, Radhika Srivastava, Alicia A. Livinski, Philip S. Rosenberg, Douglas R. Stewart</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4320012061</t>
+          <t>Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, MD, USA; Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, MD, USA; Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, MD, USA; Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, MD, USA; Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, MD, USA; NIH Library, Office of Research Services, Office of the Director, National Institutes of Health, Bethesda, MD, USA; Biostatistics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, MD, USA; Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, National Institutes of Health, Rockville, MD, USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Association of germline variants in telomere maintenance genes (POT1, TERF2IP, ACD, and TERT) with spitzoid morphology in familial melanoma: A multi-center case series</t>
+          <t>https://openalex.org/W4360953612</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Cancer in Costello syndrome: a systematic review and meta-analysis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>JAAD International</t>
+          <t>2023-03-25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>British Journal of Cancer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jdin.2023.01.013</t>
+          <t>Springer Nature</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1038/s41416-023-02229-7</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36876055</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jdin.2023.01.013</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36966234</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41416-023-02229-7</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Esteban Astiazaran-Symonds, Gina M. Ney, Cecilia Higgs, Leatrisse Oba, Radhika Srivastava, Alicia A. Livinski, Philip S. Rosenberg, Douglas R. Stewart</t>
+          <t>Helen Hanson, Esteban Astiazaran-Symonds, Laura M. Amendola, Judith Balmañà, William D. Foulkes, Paul James, Susan Klugman, Joanne Ngeow, Rita K. Schmutzler, Nicoleta C. Voian, Myra J. Wick, Tuya Pal, Marc Tischkowitz, Douglas R. Stewart</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4360953612</t>
+          <t>Faculty of Health and Life Sciences, University of Exeter, Exeter, United Kingdom; Peninsula Clinical Genetics Service, Royal Devon University Healthcare NHS Foundation Trust, Exeter, United Kingdom; Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, Rockville, MD; Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson, AZ; Medical Genomics Research, Illumina, Inc. San Diego, CA; Hereditary Cancer Genetics Group, Vall d’Hebron Institute of Oncology (VHIO), Barcelona, Spain; Medical Oncology Department, Hospital Universitari Vall d’Hebron, Vall d’Hebron Hospital Campus, Barcelona, Spain; Departments of Human Genetics, Oncology and Medicine, McGill University, Montréal, Québec, Canada; Parkville Familial Cancer Centre, Peter MacCallum Cancer Centre, Melbourne, Victoria, Australia; Sir Peter MacCallum Department of Oncology, The University of Melbourne, Melbourne, Victoria, Australia; Division of Reproductive &amp; Medical Genetics, Department of Obstetrics &amp; Gynecology and Women's Health, Montefiore Medical Center/Albert Einstein College of Medicine, Bronx, NY; Cancer Genetics Service, Division of Medical Oncology, National Cancer Centre Singapore, Singapore; Genomic Medicine, Lee Kong Chian School of Medicine, Nanyang Technological University, Singapore; Center for Hereditary Breast and Ovarian Cancer, University Hospital of Cologne, Cologne, Germany; Center of Integrated Oncology (CIO), University of Cologne, Cologne, Germany; Providence Genetic Risk Clinic, Providence Cancer Institute, Portland, OR; Departments of Obstetrics and Gynecology and Clinical Genomics, Mayo Clinic, Rochester, MN; Department of Medicine, Vanderbilt University Medical Center/Vanderbilt-Ingram Cancer Center, Nashville, TN; Department of Medical Genetics, National Institute for Health Research Cambridge Biomedical Research Centre, University of Cambridge, Cambridge, United Kingdom; Clinical Genetics Branch, Division of Cancer Epidemiology and Genetics, National Cancer Institute, Rockville, MD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cancer in Costello syndrome: a systematic review and meta-analysis</t>
+          <t>https://openalex.org/W4390414081</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-03-25</t>
+          <t>Response to Stern</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>British Journal of Cancer</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Springer Nature</t>
+          <t>Genetics in Medicine</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41416-023-02229-7</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/j.gim.2023.101030</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36966234</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41416-023-02229-7</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38156990</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.gim.2023.101030</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,80 +882,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Helen Hanson, Esteban Astiazaran-Symonds, Laura M. Amendola, Judith Balmañà, William D. Foulkes, Paul James, Susan Klugman, Joanne Ngeow, Rita K. Schmutzler, Nicoleta C. Voian, Myra J. Wick, Tuya Pal, Marc Tischkowitz, Douglas R. Stewart</t>
+          <t>Jianglin Feng, Esteban Astiazaran Symonds, Jason H. Karnes</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390414081</t>
+          <t>Department of Pharmacy Practice and Science, College of Pharmacy, University of Arizona, Tucson, AZ, USA; Department of Medicine, College of Medicine-Tucson, University of Arizona, Tucson, AZ, USA; Department of Biomedical Informatics, Vanderbilt University Medical Center, Nashville, TN, USA; Department of Pharmacy Practice and Science, College of Pharmacy, University of Arizona, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Response to Stern</t>
+          <t>https://openalex.org/W4317480008</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Visualization and Quantification of the Association Between Breast Cancer and Cholesterol in the All of Us Research Program</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Genetics in Medicine</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Cancer Informatics</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.gim.2023.101030</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1177/11769351221144132</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38156990</t>
-        </is>
-      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.gim.2023.101030</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36654923</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/11769351221144132</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
